--- a/Rednote/saves/Alma/info_data.xlsx
+++ b/Rednote/saves/Alma/info_data.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-04-06</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:22</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Thommas89</t>
+          <t>Asdasd</t>
         </is>
       </c>
     </row>
